--- a/vo2data.xlsx
+++ b/vo2data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smontalvo\Documents\R\Applewatchproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:8001_{9C2C8317-BE60-4709-8357-FEB7C787C374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1303E5-F7E7-4911-A5BD-9223B3E026A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21780" yWindow="855" windowWidth="14400" windowHeight="10755" xr2:uid="{316637BB-39BA-4497-99A1-C6A50FB0BCEF}"/>
+    <workbookView xWindow="-19320" yWindow="-960" windowWidth="19440" windowHeight="15000" xr2:uid="{316637BB-39BA-4497-99A1-C6A50FB0BCEF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Height</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>VO2_max</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>tr205</t>
   </si>
 </sst>
 </file>
@@ -191,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +207,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,13 +229,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -538,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DEA2C2A-8CA5-48A2-8AF0-BAB6F5D4E5E7}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -611,112 +628,112 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>1.6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="4">
         <v>52.57</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="4">
         <f>E2/(D2^2)</f>
         <v>20.535156249999996</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="4">
         <v>24</v>
       </c>
-      <c r="H2" s="3">
-        <v>72.2</v>
-      </c>
-      <c r="I2">
+      <c r="H2" s="6">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I2" s="4">
         <v>109</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="4">
         <v>82</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="4">
         <v>62</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="4">
         <v>194</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="4">
         <f>L2-K2</f>
         <v>132</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="4">
         <f>(M2*0.25)+K2</f>
         <v>95</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <f>(M2*0.5)+K2</f>
         <v>128</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <f>(M2*0.75)+K2</f>
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1.77</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>62.74</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="4">
         <f t="shared" ref="F3:F10" si="0">E3/(D3^2)</f>
         <v>20.026173832551308</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="4">
         <v>22</v>
       </c>
-      <c r="H3" s="3">
-        <v>73.3</v>
-      </c>
-      <c r="I3">
+      <c r="H3" s="6">
+        <v>83.6</v>
+      </c>
+      <c r="I3" s="4">
         <v>123</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="4">
         <v>75</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="4">
         <v>63</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="4">
         <v>198</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="4">
         <f t="shared" ref="M3:M10" si="1">L3-K3</f>
         <v>135</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="4">
         <f t="shared" ref="N3:N10" si="2">(M3*0.25)+K3</f>
         <v>96.75</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="4">
         <f t="shared" ref="O3:O10" si="3">(M3*0.5)+K3</f>
         <v>130.5</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="4">
         <f t="shared" ref="P3:P10" si="4">(M3*0.75)+K3</f>
         <v>164.25</v>
       </c>
@@ -1104,6 +1121,20 @@
       <c r="P10">
         <f t="shared" si="4"/>
         <v>154.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="3">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
